--- a/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27080</v>
+        <v>27560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50054</v>
+        <v>49318</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.064461149264211</v>
+        <v>0.06446114926421101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04680808861208137</v>
+        <v>0.04763778439889539</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08651891581308691</v>
+        <v>0.08524729435767277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -762,19 +762,19 @@
         <v>56804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47077</v>
+        <v>46909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69639</v>
+        <v>68574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06918657866216101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05733923974471561</v>
+        <v>0.05713451821295887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0848189831460002</v>
+        <v>0.08352150808676288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -783,19 +783,19 @@
         <v>94097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80087</v>
+        <v>78123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111121</v>
+        <v>111812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06723325311027305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05722297339014414</v>
+        <v>0.05581939256608155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07939726001735781</v>
+        <v>0.07989047011714619</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8872</v>
+        <v>8392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22754</v>
+        <v>21878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0247708075389007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0153362854509813</v>
+        <v>0.0145066071137861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03932993684456851</v>
+        <v>0.03781690817421702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -833,19 +833,19 @@
         <v>29392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21905</v>
+        <v>22317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38090</v>
+        <v>39146</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03579890229057733</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02668003974079868</v>
+        <v>0.02718112272292224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0463934029787288</v>
+        <v>0.04767858674207631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -854,19 +854,19 @@
         <v>43723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33681</v>
+        <v>33646</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55664</v>
+        <v>54768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03124027757036955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02406510927029681</v>
+        <v>0.02404024109577267</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03977232470599557</v>
+        <v>0.03913224287408729</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>193121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>171854</v>
+        <v>173229</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>214178</v>
+        <v>213865</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.333813675771422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2970533586030765</v>
+        <v>0.2994308689199492</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3702110403915359</v>
+        <v>0.3696702938228077</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>564</v>
@@ -904,19 +904,19 @@
         <v>317756</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>295288</v>
+        <v>296908</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>340361</v>
+        <v>339205</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.387020760241602</v>
+        <v>0.3870207602416021</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3596541855530631</v>
+        <v>0.3616281714022141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4145526199118517</v>
+        <v>0.4131449491975177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>823</v>
@@ -925,19 +925,19 @@
         <v>510878</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>479820</v>
+        <v>478699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>544845</v>
+        <v>543193</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3650268314608331</v>
+        <v>0.3650268314608332</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3428359502357878</v>
+        <v>0.3420347876745991</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3892970230674244</v>
+        <v>0.3881164174512719</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>333785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>312198</v>
+        <v>311076</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>358370</v>
+        <v>354534</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5769543674254666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.539640285065869</v>
+        <v>0.5377015040027069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6194504597896494</v>
+        <v>0.6128202206896934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>720</v>
@@ -975,19 +975,19 @@
         <v>417079</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>394433</v>
+        <v>394039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>440716</v>
+        <v>438148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5079937588056597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4804112899507054</v>
+        <v>0.479931322256169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5367827872492226</v>
+        <v>0.5336548083184348</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1089</v>
@@ -996,19 +996,19 @@
         <v>750865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>715303</v>
+        <v>718512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>780193</v>
+        <v>784278</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5364996378585242</v>
+        <v>0.5364996378585243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5110906764634165</v>
+        <v>0.5133835428257195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5574550513890417</v>
+        <v>0.5603735427951182</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>225920</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>195671</v>
+        <v>196070</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>260839</v>
+        <v>260374</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1012838090066693</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08772263014540053</v>
+        <v>0.08790143386417192</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.116938458719922</v>
+        <v>0.1167301045334549</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>222</v>
@@ -1121,19 +1121,19 @@
         <v>191357</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>163527</v>
+        <v>167796</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>218509</v>
+        <v>219818</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08812621713962192</v>
+        <v>0.0881262171396219</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07530988325372212</v>
+        <v>0.07727558278930471</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1006309853108907</v>
+        <v>0.1012335517153699</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>415</v>
@@ -1142,19 +1142,19 @@
         <v>417277</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>378072</v>
+        <v>376581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>460662</v>
+        <v>464367</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09479344987518451</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08588711465786565</v>
+        <v>0.08554861294003209</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1046492079145036</v>
+        <v>0.105490901524689</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>68941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53006</v>
+        <v>54157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89130</v>
+        <v>87628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03090723510162792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02376343612091118</v>
+        <v>0.0242792940862906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03995839874295131</v>
+        <v>0.039285245316933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -1192,19 +1192,19 @@
         <v>73084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59271</v>
+        <v>59821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88891</v>
+        <v>91101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03365782862808128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0272964207831019</v>
+        <v>0.02754944413857304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04093751508248315</v>
+        <v>0.04195498197496388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -1213,19 +1213,19 @@
         <v>142025</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121875</v>
+        <v>120431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166589</v>
+        <v>164320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03226404415846832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02768655215962023</v>
+        <v>0.02735847986392744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03784426828750211</v>
+        <v>0.03732890456043397</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>486355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443449</v>
+        <v>445154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>528340</v>
+        <v>526864</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2180410477287137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.198805422563938</v>
+        <v>0.1995697779517274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.236863689443881</v>
+        <v>0.2362020627461823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -1263,19 +1263,19 @@
         <v>479779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446424</v>
+        <v>446430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>513213</v>
+        <v>519594</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2209546843944128</v>
+        <v>0.2209546843944127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2055935157253795</v>
+        <v>0.2055962468361189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2363522211053267</v>
+        <v>0.2392908823128533</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1191</v>
@@ -1284,19 +1284,19 @@
         <v>966134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>911950</v>
+        <v>914234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1022386</v>
+        <v>1023668</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2194782824849011</v>
+        <v>0.219478282484901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2071692254295179</v>
+        <v>0.2076880822263373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2322571229108365</v>
+        <v>0.2325482470533147</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1449350</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1394672</v>
+        <v>1400134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1505097</v>
+        <v>1500313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.649767908162989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6252548487802841</v>
+        <v>0.6277036051696914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6747602594576756</v>
+        <v>0.6726155980590718</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1908</v>
@@ -1334,19 +1334,19 @@
         <v>1427172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1388562</v>
+        <v>1380506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1470497</v>
+        <v>1468264</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6572612698378841</v>
+        <v>0.657261269837884</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6394799357184876</v>
+        <v>0.6357698890526302</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6772139200994998</v>
+        <v>0.6761856369701637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3140</v>
@@ -1355,19 +1355,19 @@
         <v>2876523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2806236</v>
+        <v>2811153</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2937600</v>
+        <v>2940761</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6534642234814461</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6374971435403681</v>
+        <v>0.6386140344754404</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6673391490296934</v>
+        <v>0.6680572365595776</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>34407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23827</v>
+        <v>22316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51122</v>
+        <v>49732</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04835284211408811</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03348453154550426</v>
+        <v>0.03136019808483961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07184220747747548</v>
+        <v>0.06988891879990274</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1480,19 +1480,19 @@
         <v>19071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12730</v>
+        <v>12870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28659</v>
+        <v>29056</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02595168274117305</v>
+        <v>0.02595168274117304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01732327527101418</v>
+        <v>0.01751308679253053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03899807888224933</v>
+        <v>0.03953891165354144</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1501,19 +1501,19 @@
         <v>53479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39977</v>
+        <v>39251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71259</v>
+        <v>70392</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0369719162575557</v>
+        <v>0.03697191625755569</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02763750008925962</v>
+        <v>0.02713580150529547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04926454014129494</v>
+        <v>0.04866472829003524</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>15297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7551</v>
+        <v>8415</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26748</v>
+        <v>27029</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02149723759478764</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01061090220556985</v>
+        <v>0.01182562922491369</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03758986509503837</v>
+        <v>0.03798391709651829</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1551,19 +1551,19 @@
         <v>11838</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6553</v>
+        <v>6682</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20385</v>
+        <v>21344</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.01610823279465544</v>
+        <v>0.01610823279465545</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008917293557759016</v>
+        <v>0.009092873504338014</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02773998284741504</v>
+        <v>0.02904457531507933</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>27</v>
@@ -1572,19 +1572,19 @@
         <v>27135</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>17435</v>
+        <v>18300</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>41340</v>
+        <v>40517</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01875934965560547</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01205367112856694</v>
+        <v>0.01265138168350545</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02857988150791129</v>
+        <v>0.02801081643839645</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>165100</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142520</v>
+        <v>141909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189323</v>
+        <v>188775</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2320159080903647</v>
+        <v>0.2320159080903646</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2002847740776458</v>
+        <v>0.1994265737115498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2660571681930112</v>
+        <v>0.2652867510005664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1622,19 +1622,19 @@
         <v>161743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138936</v>
+        <v>141192</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180968</v>
+        <v>180929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2200955439208896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1890597307302541</v>
+        <v>0.192130350496695</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2462566534968372</v>
+        <v>0.2462025904654077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>390</v>
@@ -1643,19 +1643,19 @@
         <v>326843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>296276</v>
+        <v>293163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>360710</v>
+        <v>357728</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2259597581144981</v>
+        <v>0.2259597581144982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2048276553400267</v>
+        <v>0.2026756055468563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2493737409574628</v>
+        <v>0.2473118397619822</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>496783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>467941</v>
+        <v>471902</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>522995</v>
+        <v>523394</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6981340122007597</v>
+        <v>0.6981340122007595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6576026192209642</v>
+        <v>0.6631690221747353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7349701571797048</v>
+        <v>0.7355307473558009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>749</v>
@@ -1693,19 +1693,19 @@
         <v>542225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>521680</v>
+        <v>520642</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>564709</v>
+        <v>563197</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7378445405432816</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7098877616144292</v>
+        <v>0.7084745202089603</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7684398940299618</v>
+        <v>0.7663832760206466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1213</v>
@@ -1714,19 +1714,19 @@
         <v>1039008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1004555</v>
+        <v>1004248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1075332</v>
+        <v>1070676</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7183089759723407</v>
+        <v>0.7183089759723408</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.694490395289835</v>
+        <v>0.6942779692860216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7434211265148172</v>
+        <v>0.7402024096301242</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>297620</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>261767</v>
+        <v>261223</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>334738</v>
+        <v>337542</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08453479030340741</v>
+        <v>0.08453479030340742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0743512484961505</v>
+        <v>0.07419654986981696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09507756726981041</v>
+        <v>0.09587409291924229</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>342</v>
@@ -1839,19 +1839,19 @@
         <v>267232</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>239820</v>
+        <v>236331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>298301</v>
+        <v>296966</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07169591084198183</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06434148216225324</v>
+        <v>0.06340531974636178</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08003144118826011</v>
+        <v>0.07967324758972319</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>608</v>
@@ -1860,19 +1860,19 @@
         <v>564853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>519366</v>
+        <v>520163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>611175</v>
+        <v>612746</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07793235094708065</v>
+        <v>0.07793235094708063</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07165662173305104</v>
+        <v>0.07176655053782527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08432346381011377</v>
+        <v>0.08454024610950234</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>98568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81019</v>
+        <v>80028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119568</v>
+        <v>122619</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02799696549227687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02301235862872905</v>
+        <v>0.02273070501726547</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03396157432368931</v>
+        <v>0.03482815435472574</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -1910,19 +1910,19 @@
         <v>114314</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95815</v>
+        <v>97431</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132691</v>
+        <v>132793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03066936430573153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02570616012993546</v>
+        <v>0.02613973273696224</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03559981387810431</v>
+        <v>0.03562719737155551</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>260</v>
@@ -1931,19 +1931,19 @@
         <v>212882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>186352</v>
+        <v>187087</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242204</v>
+        <v>242258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02937125607228944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02571082171705603</v>
+        <v>0.02581224289791068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03341678348347146</v>
+        <v>0.03342418239666241</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>844576</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>790546</v>
+        <v>790918</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>899040</v>
+        <v>899882</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2398897074681823</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2245433217247777</v>
+        <v>0.2246491517347639</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2553594813126154</v>
+        <v>0.2555988084405633</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1472</v>
@@ -1981,19 +1981,19 @@
         <v>959279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>914511</v>
+        <v>917685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1005054</v>
+        <v>1009459</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2573655458010944</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2453546082994598</v>
+        <v>0.2462061322151848</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2696465584591177</v>
+        <v>0.2708284529384419</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2404</v>
@@ -2002,19 +2002,19 @@
         <v>1803855</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1733396</v>
+        <v>1736384</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1878564</v>
+        <v>1878344</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2488767193908888</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2391555132793811</v>
+        <v>0.2395678287119479</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2591842868939954</v>
+        <v>0.2591539957551273</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2279919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2216738</v>
+        <v>2225697</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2340924</v>
+        <v>2339533</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6475785367361334</v>
+        <v>0.6475785367361335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6296328303323963</v>
+        <v>0.6321775815556052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6649061895379325</v>
+        <v>0.6645110381864013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3377</v>
@@ -2052,19 +2052,19 @@
         <v>2386477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2335886</v>
+        <v>2332250</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2444003</v>
+        <v>2436439</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6402691790511924</v>
+        <v>0.6402691790511923</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6266963215078937</v>
+        <v>0.6257207519075413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6557029326538792</v>
+        <v>0.6536736792856435</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5442</v>
@@ -2073,19 +2073,19 @@
         <v>4666395</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4591030</v>
+        <v>4589414</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4750336</v>
+        <v>4746179</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.643819673589741</v>
+        <v>0.6438196735897411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6334216080168267</v>
+        <v>0.6331986068472821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6554008608409885</v>
+        <v>0.6548273140831271</v>
       </c>
     </row>
     <row r="23">
